--- a/plan/日本旅行行程安排_v4.xlsx
+++ b/plan/日本旅行行程安排_v4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,13 +104,6 @@
   </si>
   <si>
     <t>神户 - 京都：直接乘坐JR东海道线的JR新快速列车（也称为京都神户线）从三宫站至京都站，单程需要45分钟，费用为1,050日元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">关西国际机场：Kansai International Airport
-神户：Kobe
-三宫：Sannomiya
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,12 +123,370 @@
     <t>火车山陽電鉄本線-&gt;Sanyohimeji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>西本愿寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年坂、三年坂、宁宁之路、石塀小路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">衹园 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先斗町</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二条城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金阁寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十三间堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏見稲荷大社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东福寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京都巴士一日券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近鉄 京都駅：市巴士『京都駅前』坐９/２８/７５路到『西本願寺前』下車。 阪急電車：河原町駅：市巴士『四条河原町』坐２０７路到『島原口』下車。 大宮駅：市巴士『四条大宮』坐１８/７１/２０６/２０７路到『島原口』下車。 京阪電車</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>七条駅：市巴士『七条京阪前』坐２０６/２０８路到『七条堀川』下車。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">西本愿寺：Karasuma-dÅ ri ShimogyÅ -ku ShichijÅ agaru，
+开放时间：6:00~18:00 
+门　　票：免费
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴士：206、100路，五条坂站 巴士：18路，东山五条站，，仅在周六和节假日运行 巴士：207路，清水道站 巴士：83、85、87、88、88路，清水道站、五条坂站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">清水寺：1-294 Kiyomizu Higashiyama-ku
+开放时间：6:00-18:00 夜间参拜时间详见官网,12月31日晚上从22:00开始整夜开门参拜
+门　　票：成人：300円 夜间参拜成人：400円
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食一条街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水寺附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水寺附近，其实就是八坂神社、白川、石塀小路这一带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位在三条通到四条通、鸭川和木屋町通之间的南北走向的石叠小路。除了花街特有的商业形态以外，尚有一般饮食店。东侧的店面对鸭川，设有纳凉床的饮食店很多。先斗町歌舞练场位在北端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴士：9、50、101路，二条城前站 地下铁：东西线，二条城前站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放时间：8:45-17:00(16点停止入场)
+门　　票：成人：600円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">京都市巴士：12、59、特59路，金阁寺前站 。JR京都站前的巴士總站，乘101、102、204、
+205的巴士於金閣寺下車。全程均一價220円，可使用巴士一日劵。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开放时间：9:00-17:00
+门　　票： 成人400円
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如101號會途經二条城及銀閣寺，102號可到達出町柳的下鴨神社，205可到下鴨神社和本願寺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴士：京都市巴士100、206、208路，博物馆站 地铁：京坂本线，七条站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放时间：9:00-16:00，4月-11月上旬8:00-17:00，11月中旬-3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">铁路：稻荷站(JR奈良线)；伏见稻荷站(京阪本线)，下车步行约5分钟 巴士：京都市巴士南5
+路，稻荷大社前
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开放时间：全天开放观光，神社参拜时间为8:30-16:30
+门　　票：免费
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>●JR奈良線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>京阪本線
+「東福寺駅」下車，南東へ徒歩10分。
+●市バス202,207,208系統
+「東福寺」バス停下車。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-778 Honmahi Higashiyama-ku，〒605-0981 京都府京都市東山区本町15丁目７７８
+开放时间：9：00-16：00票价：进大门免费，方丈庭院、通天阁、灵云院、芬陀院各300日元，同聚园200日元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寂光寺、大河内庄园、竹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天龙寺、龟山公、渡月桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北野天满宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京福电铁（也就是俗称的岚电）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从JR京都站坐JR山阴本线到JR马崛站，然后往回步行到龟岗站坐嵯峨野小火车前往岚山。小火车路线如下：JR马崛站→小火车龟岗站→小火车岚山站。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙安寺、金阁寺，途径立命馆大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈良公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春日大社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">奈良县奈良市 Zoshicho, 406−1 東大寺二月堂从近铁奈良站或JR奈良站乘坐市内循环巴士到
+〝大仏殿春日大社前〞下车，徒步约15分钟即达
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门　　票：免费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月堂/东大寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈良市水門町南院畑82（南大門南側）于JR、近鉄奈良站搭乘市内循環巴士至〝大仏殿春日大社前〞下车徒歩5分，或由奈良站徒步约20分可达。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开放时间：11月至2月：8:00-16:30（3月延后至17:00）4月至9月：7:30-17:30（10月提前至17:00）
+门　　票：500元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近铁，直接到达近铁奈良站，出站稍走就是奈良公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京都-难波-奈良公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天守阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅田空中大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道顿崛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心斋桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难波-关西机场：南海电铁，890日元，1个多小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关西国际机场：Kansai International Airport
+神户：Kobe
+三宫：Sannomiya
+在关西空港一楼的KAA旅游咨询台或难波车站大阪市游客指南中心购买大阪1/2日周游卡，凭护照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难波乘坐御堂筋线到本町站，然后换乘中央线到达森之宫站，从森之宫的B出口出来步行即可到达大阪城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐地铁中央线到本町站，再转御堂筋线就到了梅田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪城附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天宝山摩天轮、美术馆、海洋馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地鐵中央線「大阪港站」徒步5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从地铁堺筋线“惠美须町”徒步1分，近铁、地铁堺筋线、千日前线“日本桥站”徒步5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本桥电器街临近地铁站
+惠美须町 (K18) 距离 500米内 堺筋线
+日本桥 (Sen17/K17) 距离 1公里内 千日前线 / 堺筋线
+四天王寺前夕阳丘 (Tan26) 距离 1公里内 谷町线
+难波 (Mid20/Yot15/Sen16) 距离 1公里内 御堂筋线 / 四桥线 / 千日前线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〒542-0071 大阪府大阪市中央区道頓堀２−３−２５
++81 6-6213-9040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁御堂筋线 梅田站
+8分钟
+地铁御堂筋线 难波站
+14号出口
+3分钟
+最近的车站：地铁/近铁线 难波站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地鐵御堂筋線「心齋橋站」 5/6號出口　徒步1分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +529,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -205,15 +577,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,10 +610,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -530,17 +909,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="63.125" customWidth="1"/>
     <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
@@ -562,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54.75" thickTop="1">
+    <row r="2" spans="1:6" ht="81.75" thickTop="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -574,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -588,7 +967,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="40.5">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
@@ -621,7 +1000,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
@@ -633,7 +1012,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -650,7 +1029,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="40.5">
+    <row r="9" spans="1:6" ht="27">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
@@ -669,285 +1048,597 @@
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:6" ht="67.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:6" ht="67.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:6" ht="27">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:6" ht="40.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="27">
       <c r="A16" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>7</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:6" ht="27">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:6" ht="54">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:6" ht="27">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:6" ht="54">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:6" ht="54">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    <row r="22" spans="1:6" ht="27">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:6" ht="27">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+    <row r="29" spans="1:6" ht="54">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+    <row r="30" spans="1:6" ht="54">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="5">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:6" ht="27">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:6" ht="27">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="5">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" spans="1:6" ht="81">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    <row r="38" spans="1:6" ht="81">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="5">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="C42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="C66" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
